--- a/План тестирования по заданию 6_5 AliExp элемента Корзина.xlsx
+++ b/План тестирования по заданию 6_5 AliExp элемента Корзина.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\SkillFactory\SkillFactory_QAP-95_Rumyantsev_K\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7050" tabRatio="709" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7050" tabRatio="709" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="План тестирования" sheetId="1" r:id="rId1"/>
@@ -817,11 +817,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="6" ySplit="3" topLeftCell="G4" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="6" ySplit="3" topLeftCell="G7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="F6" sqref="F6"/>
+      <selection pane="bottomRight" activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1264,7 +1264,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="5" ySplit="3" topLeftCell="F5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
